--- a/Device Interaction/Automation/Valves.xlsx
+++ b/Device Interaction/Automation/Valves.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="15">
   <si>
     <t>Application</t>
   </si>
@@ -65,10 +65,7 @@
     <t>reader</t>
   </si>
   <si>
-    <t>timeout</t>
-  </si>
-  <si>
-    <t>oom</t>
+    <t>non-terminated</t>
   </si>
   <si>
     <t>detected</t>
@@ -140,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -188,9 +185,6 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -343,10 +337,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>10</v>
@@ -378,7 +372,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>12</v>
@@ -422,7 +416,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>10</v>
@@ -448,10 +442,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>12</v>
@@ -486,16 +480,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>12</v>
@@ -506,7 +500,7 @@
     </row>
     <row r="10">
       <c r="D10" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="13">
         <f t="shared" ref="E10:K10" si="1">countif(E$2:E$9, "detected")</f>
@@ -537,13 +531,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" ref="L10:L13" si="3">SUM(E10:K10)</f>
+        <f t="shared" ref="L10:L12" si="3">SUM(E10:K10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="D11" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" ref="E11:K11" si="2">countif(E$2:E$9, "no error")</f>
@@ -579,84 +573,57 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" s="17" t="s">
-        <v>13</v>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" ref="E12:K12" si="4">COUNTIF(E$2:E$9, "oom")</f>
-        <v>3</v>
+        <f t="shared" ref="E12:K12" si="4">COUNTIF(E$2:E$9, "non-terminated")</f>
+        <v>6</v>
       </c>
       <c r="F12" s="13">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H12" s="13">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12" s="13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
-      <c r="D13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="13">
-        <f t="shared" ref="E13:K13" si="5">COUNTIF(E$2:E$9, "timeout")</f>
-        <v>3</v>
-      </c>
-      <c r="F13" s="13">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="G13" s="13">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I13" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="13">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
     </row>
     <row r="14">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="19"/>
     </row>
   </sheetData>
   <drawing r:id="rId2"/>
